--- a/artfynd/A 8258-2019.xlsx
+++ b/artfynd/A 8258-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76286486</v>
+        <v>76286433</v>
       </c>
       <c r="B2" t="n">
         <v>73631</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401646.0580584512</v>
+        <v>401448.8871785194</v>
       </c>
       <c r="R2" t="n">
-        <v>6369564.113953457</v>
+        <v>6369526.89924656</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>76286433</v>
+        <v>76286429</v>
       </c>
       <c r="B3" t="n">
-        <v>73631</v>
+        <v>4717</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,26 +812,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6426</v>
+        <v>102306</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -839,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401448.8871785194</v>
+        <v>401447.7819915014</v>
       </c>
       <c r="R3" t="n">
-        <v>6369526.89924656</v>
+        <v>6369481.1818641</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -912,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76286567</v>
+        <v>76286419</v>
       </c>
       <c r="B4" t="n">
-        <v>73631</v>
+        <v>94838</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,37 +930,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6426</v>
+        <v>2569</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Store mosse, Vg</t>
+          <t>Hessleberget, Vg</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>401710.0537954172</v>
+        <v>401438.8329871924</v>
       </c>
       <c r="R4" t="n">
-        <v>6369445.250745206</v>
+        <v>6369423.275553815</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>76286498</v>
+        <v>76286486</v>
       </c>
       <c r="B5" t="n">
         <v>73631</v>
@@ -1071,10 +1074,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>401651.2454527967</v>
+        <v>401646.0580584512</v>
       </c>
       <c r="R5" t="n">
-        <v>6369577.980847845</v>
+        <v>6369564.113953457</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1144,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76286459</v>
+        <v>76286567</v>
       </c>
       <c r="B6" t="n">
-        <v>4717</v>
+        <v>73631</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,39 +1163,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102306</v>
+        <v>6426</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Hessleberget, Vg</t>
+          <t>Store mosse, Vg</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>401583.2218831062</v>
+        <v>401710.0537954172</v>
       </c>
       <c r="R6" t="n">
-        <v>6369596.843417857</v>
+        <v>6369445.250745206</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1262,7 +1263,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76286556</v>
+        <v>76286498</v>
       </c>
       <c r="B7" t="n">
         <v>73631</v>
@@ -1301,14 +1302,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Store mosse, Vg</t>
+          <t>Hessleberget, Vg</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>401658.188898476</v>
+        <v>401651.2454527967</v>
       </c>
       <c r="R7" t="n">
-        <v>6369441.119798088</v>
+        <v>6369577.980847845</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1378,7 +1379,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>76286429</v>
+        <v>76286459</v>
       </c>
       <c r="B8" t="n">
         <v>4717</v>
@@ -1423,10 +1424,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>401447.7819915014</v>
+        <v>401583.2218831062</v>
       </c>
       <c r="R8" t="n">
-        <v>6369481.1818641</v>
+        <v>6369596.843417857</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1496,10 +1497,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>76286535</v>
+        <v>76286556</v>
       </c>
       <c r="B9" t="n">
-        <v>94160</v>
+        <v>73631</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,27 +1513,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2590</v>
+        <v>6426</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>401653.0662453177</v>
+        <v>401658.188898476</v>
       </c>
       <c r="R9" t="n">
-        <v>6369429.941732448</v>
+        <v>6369441.119798088</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>76286584</v>
+        <v>76286535</v>
       </c>
       <c r="B10" t="n">
         <v>94160</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>401733.9805413911</v>
+        <v>401653.0662453177</v>
       </c>
       <c r="R10" t="n">
-        <v>6369431.219640773</v>
+        <v>6369429.941732448</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76286508</v>
+        <v>76286584</v>
       </c>
       <c r="B11" t="n">
-        <v>73631</v>
+        <v>94160</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1746,37 +1746,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6426</v>
+        <v>2590</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Hessleberget, Vg</t>
+          <t>Store mosse, Vg</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>401710.1660632176</v>
+        <v>401733.9805413911</v>
       </c>
       <c r="R11" t="n">
-        <v>6369584.093957656</v>
+        <v>6369431.219640773</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1846,7 +1847,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>76286506</v>
+        <v>76286508</v>
       </c>
       <c r="B12" t="n">
         <v>73631</v>
@@ -1889,10 +1890,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>401695.9143485032</v>
+        <v>401710.1660632176</v>
       </c>
       <c r="R12" t="n">
-        <v>6369596.815112656</v>
+        <v>6369584.093957656</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1962,10 +1963,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>76286593</v>
+        <v>76286506</v>
       </c>
       <c r="B13" t="n">
-        <v>5113</v>
+        <v>73631</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1978,39 +1979,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100526</v>
+        <v>6426</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Store mosse, Vg</t>
+          <t>Hessleberget, Vg</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>401729.0858383786</v>
+        <v>401695.9143485032</v>
       </c>
       <c r="R13" t="n">
-        <v>6369407.119755143</v>
+        <v>6369596.815112656</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2080,10 +2079,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>76286549</v>
+        <v>76286593</v>
       </c>
       <c r="B14" t="n">
-        <v>89356</v>
+        <v>5113</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2096,26 +2095,28 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>100526</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2123,10 +2124,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>401652.0662767215</v>
+        <v>401729.0858383786</v>
       </c>
       <c r="R14" t="n">
-        <v>6369433.194898295</v>
+        <v>6369407.119755143</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2196,10 +2197,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>76286419</v>
+        <v>76286549</v>
       </c>
       <c r="B15" t="n">
-        <v>94838</v>
+        <v>89356</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2212,38 +2213,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2569</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Hessleberget, Vg</t>
+          <t>Store mosse, Vg</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>401438.8329871924</v>
+        <v>401652.0662767215</v>
       </c>
       <c r="R15" t="n">
-        <v>6369423.275553815</v>
+        <v>6369433.194898295</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>

--- a/artfynd/A 8258-2019.xlsx
+++ b/artfynd/A 8258-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76286433</v>
+        <v>76286486</v>
       </c>
       <c r="B2" t="n">
         <v>73631</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>401448.8871785194</v>
+        <v>401646.0580584512</v>
       </c>
       <c r="R2" t="n">
-        <v>6369526.89924656</v>
+        <v>6369564.113953457</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>76286429</v>
+        <v>76286433</v>
       </c>
       <c r="B3" t="n">
-        <v>4717</v>
+        <v>73631</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,28 +812,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102306</v>
+        <v>6426</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -841,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>401447.7819915014</v>
+        <v>401448.8871785194</v>
       </c>
       <c r="R3" t="n">
-        <v>6369481.1818641</v>
+        <v>6369526.89924656</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -914,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76286419</v>
+        <v>76286567</v>
       </c>
       <c r="B4" t="n">
-        <v>94838</v>
+        <v>73631</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,38 +928,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2569</v>
+        <v>6426</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stor revmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bazzania trilobata</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Gray</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Hessleberget, Vg</t>
+          <t>Store mosse, Vg</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>401438.8329871924</v>
+        <v>401710.0537954172</v>
       </c>
       <c r="R4" t="n">
-        <v>6369423.275553815</v>
+        <v>6369445.250745206</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1031,7 +1028,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>76286486</v>
+        <v>76286498</v>
       </c>
       <c r="B5" t="n">
         <v>73631</v>
@@ -1074,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>401646.0580584512</v>
+        <v>401651.2454527967</v>
       </c>
       <c r="R5" t="n">
-        <v>6369564.113953457</v>
+        <v>6369577.980847845</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1147,10 +1144,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76286567</v>
+        <v>76286459</v>
       </c>
       <c r="B6" t="n">
-        <v>73631</v>
+        <v>4717</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,37 +1160,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6426</v>
+        <v>102306</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Store mosse, Vg</t>
+          <t>Hessleberget, Vg</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>401710.0537954172</v>
+        <v>401583.2218831062</v>
       </c>
       <c r="R6" t="n">
-        <v>6369445.250745206</v>
+        <v>6369596.843417857</v>
       </c>
       <c r="S6" t="n">
         <v>5</v>
@@ -1263,7 +1262,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76286498</v>
+        <v>76286556</v>
       </c>
       <c r="B7" t="n">
         <v>73631</v>
@@ -1302,14 +1301,14 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Hessleberget, Vg</t>
+          <t>Store mosse, Vg</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>401651.2454527967</v>
+        <v>401658.188898476</v>
       </c>
       <c r="R7" t="n">
-        <v>6369577.980847845</v>
+        <v>6369441.119798088</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1379,7 +1378,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>76286459</v>
+        <v>76286429</v>
       </c>
       <c r="B8" t="n">
         <v>4717</v>
@@ -1424,10 +1423,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>401583.2218831062</v>
+        <v>401447.7819915014</v>
       </c>
       <c r="R8" t="n">
-        <v>6369596.843417857</v>
+        <v>6369481.1818641</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1497,10 +1496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>76286556</v>
+        <v>76286535</v>
       </c>
       <c r="B9" t="n">
-        <v>73631</v>
+        <v>94160</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1513,26 +1512,27 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6426</v>
+        <v>2590</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Kornknutmossa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Odontoschisma denudatum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Mart.) Dumort</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1540,10 +1540,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>401658.188898476</v>
+        <v>401653.0662453177</v>
       </c>
       <c r="R9" t="n">
-        <v>6369441.119798088</v>
+        <v>6369429.941732448</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1613,7 +1613,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>76286535</v>
+        <v>76286584</v>
       </c>
       <c r="B10" t="n">
         <v>94160</v>
@@ -1657,10 +1657,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>401653.0662453177</v>
+        <v>401733.9805413911</v>
       </c>
       <c r="R10" t="n">
-        <v>6369429.941732448</v>
+        <v>6369431.219640773</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1730,10 +1730,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76286584</v>
+        <v>76286508</v>
       </c>
       <c r="B11" t="n">
-        <v>94160</v>
+        <v>73631</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1746,38 +1746,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2590</v>
+        <v>6426</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kornknutmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Odontoschisma denudatum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Mart.) Dumort</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Store mosse, Vg</t>
+          <t>Hessleberget, Vg</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>401733.9805413911</v>
+        <v>401710.1660632176</v>
       </c>
       <c r="R11" t="n">
-        <v>6369431.219640773</v>
+        <v>6369584.093957656</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1847,7 +1846,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>76286508</v>
+        <v>76286506</v>
       </c>
       <c r="B12" t="n">
         <v>73631</v>
@@ -1890,10 +1889,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>401710.1660632176</v>
+        <v>401695.9143485032</v>
       </c>
       <c r="R12" t="n">
-        <v>6369584.093957656</v>
+        <v>6369596.815112656</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1963,10 +1962,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>76286506</v>
+        <v>76286593</v>
       </c>
       <c r="B13" t="n">
-        <v>73631</v>
+        <v>5113</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1979,37 +1978,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6426</v>
+        <v>100526</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Hessleberget, Vg</t>
+          <t>Store mosse, Vg</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>401695.9143485032</v>
+        <v>401729.0858383786</v>
       </c>
       <c r="R13" t="n">
-        <v>6369596.815112656</v>
+        <v>6369407.119755143</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2079,10 +2080,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>76286593</v>
+        <v>76286549</v>
       </c>
       <c r="B14" t="n">
-        <v>5113</v>
+        <v>89356</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2095,28 +2096,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100526</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2124,10 +2123,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>401729.0858383786</v>
+        <v>401652.0662767215</v>
       </c>
       <c r="R14" t="n">
-        <v>6369407.119755143</v>
+        <v>6369433.194898295</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2197,10 +2196,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>76286549</v>
+        <v>76286419</v>
       </c>
       <c r="B15" t="n">
-        <v>89356</v>
+        <v>94838</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2213,37 +2212,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>2569</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Stor revmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Bazzania trilobata</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Gray</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Store mosse, Vg</t>
+          <t>Hessleberget, Vg</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>401652.0662767215</v>
+        <v>401438.8329871924</v>
       </c>
       <c r="R15" t="n">
-        <v>6369433.194898295</v>
+        <v>6369423.275553815</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
